--- a/data/trans_orig/Q5406-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5406-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7329746A-01A4-4A73-9580-57D5AFB10F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5F247A8-9A28-4B0B-B29E-204E65C26722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B3F156E6-C283-4220-A75E-0213B7491C5B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AE2F87F7-476E-468E-A31A-E5D8846B349E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="535">
   <si>
     <t>Población según si es capaz de tomar medicación en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -101,7 +101,7 @@
     <t>2,0%</t>
   </si>
   <si>
-    <t>9,68%</t>
+    <t>10,64%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -125,7 +125,7 @@
     <t>98,0%</t>
   </si>
   <si>
-    <t>90,32%</t>
+    <t>89,36%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -149,1546 +149,1498 @@
     <t>0,56%</t>
   </si>
   <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de tomar medicación en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
     <t>5,5%</t>
   </si>
   <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de tomar medicación en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
   </si>
   <si>
     <t>94,79%</t>
   </si>
   <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de tomar medicación en 2023 (Tasa respuesta: 31,22%)</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
   </si>
   <si>
     <t>1,24%</t>
   </si>
   <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
   </si>
   <si>
     <t>3,74%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de tomar medicación en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de tomar medicación en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
   </si>
   <si>
     <t>89,98%</t>
   </si>
   <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de tomar medicación en 2023 (Tasa respuesta: 31,22%)</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
+    <t>92,22%</t>
   </si>
   <si>
     <t>94,69%</t>
@@ -2103,7 +2055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A33E8C-1493-4959-958D-067AB42AC9A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6AFC02-F0DD-4AB6-AD78-DEDE09670102}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2562,7 +2514,7 @@
         <v>199</v>
       </c>
       <c r="N10" s="7">
-        <v>195734</v>
+        <v>195735</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>52</v>
@@ -2613,7 +2565,7 @@
         <v>217</v>
       </c>
       <c r="N11" s="7">
-        <v>213825</v>
+        <v>213826</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>24</v>
@@ -2902,7 +2854,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -2911,13 +2863,13 @@
         <v>6654</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -2926,13 +2878,13 @@
         <v>8484</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,13 +2899,13 @@
         <v>99804</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H18" s="7">
         <v>132</v>
@@ -2962,13 +2914,13 @@
         <v>127215</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="M18" s="7">
         <v>230</v>
@@ -3105,10 +3057,10 @@
         <v>114</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -3117,13 +3069,13 @@
         <v>6808</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M21" s="7">
         <v>14</v>
@@ -3132,7 +3084,7 @@
         <v>13445</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>120</v>
@@ -3314,7 +3266,7 @@
         <v>141</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -3323,13 +3275,13 @@
         <v>27043</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>55</v>
@@ -3338,13 +3290,13 @@
         <v>55233</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,13 +3311,13 @@
         <v>470700</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H26" s="7">
         <v>622</v>
@@ -3374,13 +3326,13 @@
         <v>633852</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>1111</v>
@@ -3389,13 +3341,13 @@
         <v>1104552</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,7 +3424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212301F1-2F25-4569-BBB7-7A4A9A875795}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1E16ED-4835-4861-A834-0D2143F42043}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3808,7 +3760,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>178</v>
+        <v>66</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -3817,13 +3769,13 @@
         <v>6289</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -3832,13 +3784,13 @@
         <v>7346</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,10 +3805,10 @@
         <v>8672</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>186</v>
@@ -3868,13 +3820,13 @@
         <v>7380</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -3883,13 +3835,13 @@
         <v>16051</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,13 +3856,13 @@
         <v>108621</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H10" s="7">
         <v>121</v>
@@ -3919,13 +3871,13 @@
         <v>127923</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7">
         <v>218</v>
@@ -3934,13 +3886,13 @@
         <v>236545</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,13 +3960,13 @@
         <v>6400</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -4023,13 +3975,13 @@
         <v>8856</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
@@ -4038,10 +3990,10 @@
         <v>15257</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>209</v>
@@ -4131,7 +4083,7 @@
         <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>277</v>
@@ -4143,10 +4095,10 @@
         <v>50</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,7 +4166,7 @@
         <v>4378</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>110</v>
+        <v>226</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>227</v>
@@ -4283,10 +4235,10 @@
         <v>237</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -4295,13 +4247,13 @@
         <v>19319</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4268,13 @@
         <v>90931</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H18" s="7">
         <v>112</v>
@@ -4331,13 +4283,13 @@
         <v>121204</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M18" s="7">
         <v>191</v>
@@ -4346,13 +4298,13 @@
         <v>212134</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4471,13 +4423,13 @@
         <v>11411</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -4486,13 +4438,13 @@
         <v>12571</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M21" s="7">
         <v>21</v>
@@ -4501,13 +4453,13 @@
         <v>23982</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4522,13 +4474,13 @@
         <v>146164</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>270</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="H22" s="7">
         <v>212</v>
@@ -4537,13 +4489,13 @@
         <v>223863</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M22" s="7">
         <v>346</v>
@@ -4552,13 +4504,13 @@
         <v>370027</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,13 +4578,13 @@
         <v>16839</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>278</v>
+        <v>203</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H24" s="7">
         <v>29</v>
@@ -4641,13 +4593,13 @@
         <v>32377</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M24" s="7">
         <v>44</v>
@@ -4656,13 +4608,13 @@
         <v>49216</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>182</v>
+        <v>281</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4677,13 +4629,13 @@
         <v>37159</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -4692,13 +4644,13 @@
         <v>51087</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M25" s="7">
         <v>78</v>
@@ -4707,13 +4659,13 @@
         <v>88246</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,13 +4680,13 @@
         <v>505640</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H26" s="7">
         <v>618</v>
@@ -4743,13 +4695,13 @@
         <v>659511</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>295</v>
+        <v>98</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M26" s="7">
         <v>1076</v>
@@ -4758,13 +4710,13 @@
         <v>1165150</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4841,7 +4793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E9E9AE-2817-454D-8BB2-0B50B6B061CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC08874-BBF5-46FD-A244-1A02030ECFDD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4858,7 +4810,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4965,13 +4917,13 @@
         <v>794</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4986,7 +4938,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4995,13 +4947,13 @@
         <v>794</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,13 +4968,13 @@
         <v>1843</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -5031,13 +4983,13 @@
         <v>1089</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -5046,13 +4998,13 @@
         <v>2932</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>312</v>
+        <v>60</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5067,13 +5019,13 @@
         <v>19051</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -5082,10 +5034,10 @@
         <v>22350</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>22</v>
@@ -5097,13 +5049,13 @@
         <v>41402</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5171,13 +5123,13 @@
         <v>3365</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -5186,13 +5138,13 @@
         <v>2399</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -5204,10 +5156,10 @@
         <v>34</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5222,13 +5174,13 @@
         <v>3302</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>329</v>
+        <v>263</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -5237,13 +5189,13 @@
         <v>8227</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -5252,13 +5204,13 @@
         <v>11529</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5273,13 +5225,13 @@
         <v>108379</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="H10" s="7">
         <v>126</v>
@@ -5288,13 +5240,13 @@
         <v>139325</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="M10" s="7">
         <v>242</v>
@@ -5303,13 +5255,13 @@
         <v>247704</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5377,13 +5329,13 @@
         <v>1662</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -5392,13 +5344,13 @@
         <v>5363</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -5407,13 +5359,13 @@
         <v>7025</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>354</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5428,13 +5380,13 @@
         <v>5064</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>84</v>
+        <v>348</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -5443,13 +5395,13 @@
         <v>9277</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>110</v>
+        <v>226</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -5461,10 +5413,10 @@
         <v>31</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>360</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,13 +5431,13 @@
         <v>158215</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>362</v>
+        <v>27</v>
       </c>
       <c r="H14" s="7">
         <v>171</v>
@@ -5494,13 +5446,13 @@
         <v>204523</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="M14" s="7">
         <v>338</v>
@@ -5509,13 +5461,13 @@
         <v>362738</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5589,7 +5541,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>368</v>
+        <v>70</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5598,13 +5550,13 @@
         <v>3656</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -5613,13 +5565,13 @@
         <v>4448</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>372</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,13 +5586,13 @@
         <v>5949</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>375</v>
+        <v>286</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -5649,13 +5601,13 @@
         <v>8910</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -5664,13 +5616,13 @@
         <v>14859</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>235</v>
+        <v>372</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,13 +5637,13 @@
         <v>108294</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="H18" s="7">
         <v>108</v>
@@ -5700,13 +5652,13 @@
         <v>130030</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="M18" s="7">
         <v>215</v>
@@ -5715,13 +5667,13 @@
         <v>238324</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>390</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,7 +5747,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -5804,13 +5756,13 @@
         <v>2467</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>227</v>
+        <v>382</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5819,13 +5771,13 @@
         <v>2467</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>350</v>
+        <v>384</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5840,13 +5792,13 @@
         <v>2043</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>66</v>
+        <v>365</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -5855,13 +5807,13 @@
         <v>13044</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="M21" s="7">
         <v>10</v>
@@ -5870,13 +5822,13 @@
         <v>15088</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>311</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,10 +5843,10 @@
         <v>172575</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>22</v>
@@ -5906,13 +5858,13 @@
         <v>227270</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="M22" s="7">
         <v>376</v>
@@ -5921,13 +5873,13 @@
         <v>399846</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5995,13 +5947,13 @@
         <v>6613</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>353</v>
+        <v>401</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>333</v>
+        <v>402</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -6010,13 +5962,13 @@
         <v>13884</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>278</v>
+        <v>403</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>57</v>
+        <v>405</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -6025,13 +5977,13 @@
         <v>20498</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>177</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6046,13 +5998,13 @@
         <v>18201</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>412</v>
+        <v>86</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H25" s="7">
         <v>31</v>
@@ -6061,13 +6013,13 @@
         <v>40547</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="M25" s="7">
         <v>51</v>
@@ -6076,13 +6028,13 @@
         <v>58748</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6097,13 +6049,13 @@
         <v>566514</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="H26" s="7">
         <v>614</v>
@@ -6112,13 +6064,13 @@
         <v>723500</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="M26" s="7">
         <v>1213</v>
@@ -6127,13 +6079,13 @@
         <v>1290014</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>72</v>
+        <v>421</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>426</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6210,7 +6162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F820C9-DA3F-4605-986E-A2CD86ECF50D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBED8D4-BD1F-4641-98D3-1207845B7477}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6227,7 +6179,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6340,7 +6292,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -6352,10 +6304,10 @@
         <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>429</v>
+        <v>348</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -6364,13 +6316,13 @@
         <v>2040</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>264</v>
+        <v>211</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>32</v>
+        <v>425</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>43</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6385,13 +6337,13 @@
         <v>717</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>431</v>
+        <v>230</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -6400,13 +6352,13 @@
         <v>3952</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>433</v>
+        <v>204</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -6415,13 +6367,13 @@
         <v>4669</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>121</v>
+        <v>349</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>436</v>
+        <v>40</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>437</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6436,10 +6388,10 @@
         <v>28947</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>438</v>
+        <v>124</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>439</v>
+        <v>50</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -6451,13 +6403,13 @@
         <v>39429</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="M6" s="7">
         <v>142</v>
@@ -6466,13 +6418,13 @@
         <v>68376</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6540,13 +6492,13 @@
         <v>2154</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>448</v>
+        <v>163</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -6555,13 +6507,13 @@
         <v>4784</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>449</v>
+        <v>260</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>91</v>
+        <v>385</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -6570,13 +6522,13 @@
         <v>6938</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>453</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6591,13 +6543,13 @@
         <v>9341</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
@@ -6606,13 +6558,13 @@
         <v>10224</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>66</v>
+        <v>445</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="M9" s="7">
         <v>38</v>
@@ -6621,13 +6573,13 @@
         <v>19565</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6642,13 +6594,13 @@
         <v>113482</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="H10" s="7">
         <v>300</v>
@@ -6657,13 +6609,13 @@
         <v>132211</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="M10" s="7">
         <v>487</v>
@@ -6672,13 +6624,13 @@
         <v>245692</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6746,13 +6698,13 @@
         <v>2632</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>471</v>
+        <v>440</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>44</v>
+        <v>460</v>
       </c>
       <c r="H12" s="7">
         <v>16</v>
@@ -6761,13 +6713,13 @@
         <v>8477</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>474</v>
+        <v>133</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>145</v>
+        <v>462</v>
       </c>
       <c r="M12" s="7">
         <v>20</v>
@@ -6776,13 +6728,13 @@
         <v>11109</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>137</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>62</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6797,13 +6749,13 @@
         <v>6228</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>477</v>
+        <v>366</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>14</v>
+        <v>466</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -6812,13 +6764,13 @@
         <v>18280</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>478</v>
+        <v>410</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -6827,13 +6779,13 @@
         <v>24508</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>110</v>
+        <v>470</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6848,13 +6800,13 @@
         <v>164986</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>483</v>
+        <v>54</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>271</v>
+        <v>472</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="H14" s="7">
         <v>398</v>
@@ -6863,13 +6815,13 @@
         <v>215753</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="M14" s="7">
         <v>637</v>
@@ -6878,13 +6830,13 @@
         <v>380739</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6958,7 +6910,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>491</v>
+        <v>138</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -6970,10 +6922,10 @@
         <v>19</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -6982,13 +6934,13 @@
         <v>5619</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7003,13 +6955,13 @@
         <v>4656</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>255</v>
+        <v>485</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -7018,13 +6970,13 @@
         <v>13937</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>499</v>
+        <v>406</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -7033,13 +6985,13 @@
         <v>18593</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>477</v>
+        <v>30</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>502</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7054,13 +7006,13 @@
         <v>143534</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="H18" s="7">
         <v>258</v>
@@ -7069,13 +7021,13 @@
         <v>261060</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>362</v>
+        <v>495</v>
       </c>
       <c r="M18" s="7">
         <v>446</v>
@@ -7084,13 +7036,13 @@
         <v>404593</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>385</v>
+        <v>498</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7158,13 +7110,13 @@
         <v>1921</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>510</v>
+        <v>404</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>499</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -7173,13 +7125,13 @@
         <v>6400</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>474</v>
+        <v>501</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>512</v>
+        <v>227</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>513</v>
+        <v>280</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -7188,13 +7140,13 @@
         <v>8321</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>264</v>
+        <v>504</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7209,13 +7161,13 @@
         <v>2755</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>255</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>516</v>
+        <v>480</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="H21" s="7">
         <v>19</v>
@@ -7224,13 +7176,13 @@
         <v>10917</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
@@ -7239,13 +7191,13 @@
         <v>13672</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7260,13 +7212,13 @@
         <v>214862</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>524</v>
+        <v>393</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="H22" s="7">
         <v>494</v>
@@ -7275,13 +7227,13 @@
         <v>291581</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="M22" s="7">
         <v>812</v>
@@ -7290,13 +7242,13 @@
         <v>506443</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>421</v>
+        <v>518</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7364,13 +7316,13 @@
         <v>6707</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>532</v>
+        <v>364</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>533</v>
+        <v>179</v>
       </c>
       <c r="H24" s="7">
         <v>49</v>
@@ -7379,13 +7331,13 @@
         <v>27321</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>398</v>
+        <v>436</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>267</v>
+        <v>520</v>
       </c>
       <c r="M24" s="7">
         <v>60</v>
@@ -7394,13 +7346,13 @@
         <v>34028</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>202</v>
+        <v>522</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>535</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7415,13 +7367,13 @@
         <v>23698</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>538</v>
+        <v>481</v>
       </c>
       <c r="H25" s="7">
         <v>109</v>
@@ -7430,13 +7382,13 @@
         <v>57310</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>418</v>
+        <v>525</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>539</v>
+        <v>44</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="M25" s="7">
         <v>146</v>
@@ -7445,13 +7397,13 @@
         <v>81008</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>543</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7466,13 +7418,13 @@
         <v>665811</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="H26" s="7">
         <v>1546</v>
@@ -7481,13 +7433,13 @@
         <v>940032</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>548</v>
+        <v>122</v>
       </c>
       <c r="M26" s="7">
         <v>2524</v>
@@ -7496,13 +7448,13 @@
         <v>1605843</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5406-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5406-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5F247A8-9A28-4B0B-B29E-204E65C26722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{350E91AE-9206-40F2-8563-25A7A00797F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AE2F87F7-476E-468E-A31A-E5D8846B349E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2DEAAA04-7F66-4868-A110-4B3B0A994735}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="538">
   <si>
     <t>Población según si es capaz de tomar medicación en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Totalmente incapaz</t>
@@ -95,1531 +95,1540 @@
     <t>4,17%</t>
   </si>
   <si>
-    <t>19,96%</t>
+    <t>19,83%</t>
   </si>
   <si>
     <t>2,0%</t>
   </si>
   <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de tomar medicación en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de tomar medicación en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de tomar medicación en 2023 (Tasa respuesta: 31,22%)</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
     <t>10,64%</t>
   </si>
   <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
   </si>
   <si>
     <t>3,68%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de tomar medicación en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de tomar medicación en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de tomar medicación en 2023 (Tasa respuesta: 31,22%)</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
   </si>
   <si>
     <t>4,71%</t>
@@ -2055,7 +2064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6AFC02-F0DD-4AB6-AD78-DEDE09670102}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CEEBAD0-A5C3-44EA-9133-CF74ABF09985}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2514,7 +2523,7 @@
         <v>199</v>
       </c>
       <c r="N10" s="7">
-        <v>195735</v>
+        <v>195734</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>52</v>
@@ -2565,7 +2574,7 @@
         <v>217</v>
       </c>
       <c r="N11" s="7">
-        <v>213826</v>
+        <v>213825</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>24</v>
@@ -2833,7 +2842,7 @@
         <v>87</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2848,13 +2857,13 @@
         <v>1830</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -2863,13 +2872,13 @@
         <v>6654</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -2878,13 +2887,13 @@
         <v>8484</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2899,13 +2908,13 @@
         <v>99804</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H18" s="7">
         <v>132</v>
@@ -2914,13 +2923,13 @@
         <v>127215</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M18" s="7">
         <v>230</v>
@@ -3057,10 +3066,10 @@
         <v>114</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -3069,13 +3078,13 @@
         <v>6808</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M21" s="7">
         <v>14</v>
@@ -3084,13 +3093,13 @@
         <v>13445</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3105,13 +3114,13 @@
         <v>129742</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="H22" s="7">
         <v>191</v>
@@ -3215,7 +3224,7 @@
         <v>132</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="H24" s="7">
         <v>15</v>
@@ -3224,13 +3233,13 @@
         <v>15947</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -3239,13 +3248,13 @@
         <v>19523</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,13 +3269,13 @@
         <v>28190</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -3275,13 +3284,13 @@
         <v>27043</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M25" s="7">
         <v>55</v>
@@ -3290,13 +3299,13 @@
         <v>55233</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,13 +3320,13 @@
         <v>470700</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H26" s="7">
         <v>622</v>
@@ -3326,13 +3335,13 @@
         <v>633852</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M26" s="7">
         <v>1111</v>
@@ -3341,13 +3350,13 @@
         <v>1104552</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,7 +3412,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3424,7 +3433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1E16ED-4835-4861-A834-0D2143F42043}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80E076C-4B4D-4528-B7F9-56D4AB0D8C09}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3441,7 +3450,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3548,13 +3557,13 @@
         <v>965</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3563,13 +3572,13 @@
         <v>1131</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3578,13 +3587,13 @@
         <v>2096</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,7 +3614,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3614,13 +3623,13 @@
         <v>1172</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3629,13 +3638,13 @@
         <v>1172</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,10 +3659,10 @@
         <v>20233</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -3665,10 +3674,10 @@
         <v>22891</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>22</v>
@@ -3680,13 +3689,13 @@
         <v>43123</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,13 +3763,13 @@
         <v>1057</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>66</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -3769,13 +3778,13 @@
         <v>6289</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -3784,13 +3793,13 @@
         <v>7346</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,13 +3814,13 @@
         <v>8672</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -3820,13 +3829,13 @@
         <v>7380</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>188</v>
+        <v>34</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -3835,13 +3844,13 @@
         <v>16051</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,13 +3865,13 @@
         <v>108621</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H10" s="7">
         <v>121</v>
@@ -3871,13 +3880,13 @@
         <v>127923</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M10" s="7">
         <v>218</v>
@@ -3886,13 +3895,13 @@
         <v>236545</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,13 +3969,13 @@
         <v>6400</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -3975,13 +3984,13 @@
         <v>8856</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
@@ -3990,13 +3999,13 @@
         <v>15257</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,13 +4020,13 @@
         <v>8787</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>34</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -4026,13 +4035,13 @@
         <v>18934</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -4041,13 +4050,13 @@
         <v>27721</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,13 +4071,13 @@
         <v>139691</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>152</v>
@@ -4077,13 +4086,13 @@
         <v>163629</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>220</v>
       </c>
       <c r="M14" s="7">
         <v>277</v>
@@ -4092,13 +4101,13 @@
         <v>303320</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>50</v>
+        <v>221</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,13 +4175,13 @@
         <v>4378</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4181,13 +4190,13 @@
         <v>8786</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -4196,13 +4205,13 @@
         <v>13163</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4226,13 @@
         <v>8290</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>235</v>
+        <v>64</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -4232,13 +4241,13 @@
         <v>11030</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>237</v>
+        <v>139</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -4247,13 +4256,13 @@
         <v>19319</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,13 +4277,13 @@
         <v>90931</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H18" s="7">
         <v>112</v>
@@ -4283,13 +4292,13 @@
         <v>121204</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M18" s="7">
         <v>191</v>
@@ -4298,13 +4307,13 @@
         <v>212134</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,13 +4381,13 @@
         <v>4038</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>253</v>
+        <v>138</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -4387,13 +4396,13 @@
         <v>7315</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -4402,13 +4411,13 @@
         <v>11354</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,13 +4432,13 @@
         <v>11411</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>96</v>
+        <v>256</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -4438,13 +4447,13 @@
         <v>12571</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M21" s="7">
         <v>21</v>
@@ -4453,13 +4462,13 @@
         <v>23982</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4474,13 +4483,13 @@
         <v>146164</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>269</v>
+        <v>222</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>48</v>
+        <v>266</v>
       </c>
       <c r="H22" s="7">
         <v>212</v>
@@ -4489,13 +4498,13 @@
         <v>223863</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M22" s="7">
         <v>346</v>
@@ -4504,13 +4513,13 @@
         <v>370027</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>50</v>
+        <v>271</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,13 +4587,13 @@
         <v>16839</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>203</v>
+        <v>274</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>276</v>
+        <v>90</v>
       </c>
       <c r="H24" s="7">
         <v>29</v>
@@ -4593,13 +4602,13 @@
         <v>32377</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M24" s="7">
         <v>44</v>
@@ -4608,13 +4617,13 @@
         <v>49216</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,13 +4638,13 @@
         <v>37159</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>283</v>
+        <v>119</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>161</v>
+        <v>280</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -4644,13 +4653,13 @@
         <v>51087</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M25" s="7">
         <v>78</v>
@@ -4659,13 +4668,13 @@
         <v>88246</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,13 +4689,13 @@
         <v>505640</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H26" s="7">
         <v>618</v>
@@ -4695,13 +4704,13 @@
         <v>659511</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>98</v>
+        <v>290</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>294</v>
+        <v>244</v>
       </c>
       <c r="M26" s="7">
         <v>1076</v>
@@ -4710,13 +4719,13 @@
         <v>1165150</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,7 +4781,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4793,7 +4802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC08874-BBF5-46FD-A244-1A02030ECFDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAACF1B-9EB1-4414-884B-8E0446911341}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4810,7 +4819,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4917,13 +4926,13 @@
         <v>794</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4938,7 +4947,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4947,13 +4956,13 @@
         <v>794</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4968,13 +4977,13 @@
         <v>1843</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4983,13 +4992,13 @@
         <v>1089</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4998,13 +5007,13 @@
         <v>2932</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>60</v>
+        <v>305</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,13 +5028,13 @@
         <v>19051</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>309</v>
+        <v>100</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -5034,10 +5043,10 @@
         <v>22350</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>22</v>
@@ -5049,13 +5058,13 @@
         <v>41402</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5123,13 +5132,13 @@
         <v>3365</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -5138,13 +5147,13 @@
         <v>2399</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>321</v>
+        <v>90</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -5156,10 +5165,10 @@
         <v>34</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,13 +5183,13 @@
         <v>3302</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>263</v>
+        <v>320</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -5189,13 +5198,13 @@
         <v>8227</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -5204,13 +5213,13 @@
         <v>11529</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,13 +5234,13 @@
         <v>108379</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H10" s="7">
         <v>126</v>
@@ -5240,28 +5249,28 @@
         <v>139325</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M10" s="7">
         <v>242</v>
       </c>
       <c r="N10" s="7">
-        <v>247704</v>
+        <v>247705</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,7 +5312,7 @@
         <v>259</v>
       </c>
       <c r="N11" s="7">
-        <v>264997</v>
+        <v>264998</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>24</v>
@@ -5329,13 +5338,13 @@
         <v>1662</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -5344,13 +5353,13 @@
         <v>5363</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -5359,13 +5368,13 @@
         <v>7025</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>208</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5380,13 +5389,13 @@
         <v>5064</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -5395,13 +5404,13 @@
         <v>9277</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -5413,10 +5422,10 @@
         <v>31</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>190</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5431,13 +5440,13 @@
         <v>158215</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="H14" s="7">
         <v>171</v>
@@ -5535,13 +5544,13 @@
         <v>793</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>61</v>
+        <v>361</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>70</v>
+        <v>362</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5550,13 +5559,13 @@
         <v>3656</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>363</v>
+        <v>95</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -5565,13 +5574,13 @@
         <v>4448</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>365</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>365</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,13 +5595,13 @@
         <v>5949</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>286</v>
+        <v>36</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -5601,10 +5610,10 @@
         <v>8910</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>369</v>
+        <v>113</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>370</v>
@@ -5652,13 +5661,13 @@
         <v>130030</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>149</v>
+        <v>377</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M18" s="7">
         <v>215</v>
@@ -5667,13 +5676,13 @@
         <v>238324</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>170</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5747,7 +5756,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -5756,13 +5765,13 @@
         <v>2467</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5771,13 +5780,13 @@
         <v>2467</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5792,13 +5801,13 @@
         <v>2043</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -5807,13 +5816,13 @@
         <v>13044</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="M21" s="7">
         <v>10</v>
@@ -5822,13 +5831,13 @@
         <v>15088</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>390</v>
+        <v>317</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>391</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,10 +5852,10 @@
         <v>172575</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>393</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>22</v>
@@ -5947,13 +5956,13 @@
         <v>6613</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -5962,13 +5971,13 @@
         <v>13884</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -5977,13 +5986,13 @@
         <v>20498</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>406</v>
+        <v>346</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>177</v>
+        <v>41</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5998,13 +6007,13 @@
         <v>18201</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>86</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H25" s="7">
         <v>31</v>
@@ -6013,13 +6022,13 @@
         <v>40547</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>410</v>
+        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>51</v>
@@ -6028,13 +6037,13 @@
         <v>58748</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6049,13 +6058,13 @@
         <v>566514</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>415</v>
+        <v>272</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H26" s="7">
         <v>614</v>
@@ -6064,13 +6073,13 @@
         <v>723500</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M26" s="7">
         <v>1213</v>
@@ -6079,13 +6088,13 @@
         <v>1290014</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>170</v>
+        <v>418</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6141,7 +6150,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -6162,7 +6171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBED8D4-BD1F-4641-98D3-1207845B7477}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86CBECBA-C4E0-4A6F-8F6E-EA344C7AF883}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6179,7 +6188,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6292,7 +6301,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -6301,13 +6310,13 @@
         <v>2040</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>348</v>
+        <v>421</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -6316,13 +6325,13 @@
         <v>2040</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>211</v>
+        <v>423</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>426</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6337,13 +6346,13 @@
         <v>717</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>230</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -6352,13 +6361,13 @@
         <v>3952</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>204</v>
+        <v>426</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -6367,13 +6376,13 @@
         <v>4669</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>349</v>
+        <v>429</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>40</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>20</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6388,10 +6397,10 @@
         <v>28947</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>124</v>
+        <v>431</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>50</v>
+        <v>221</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -6403,13 +6412,13 @@
         <v>39429</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>432</v>
+        <v>129</v>
       </c>
       <c r="M6" s="7">
         <v>142</v>
@@ -6418,13 +6427,13 @@
         <v>68376</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6492,13 +6501,13 @@
         <v>2154</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -6507,13 +6516,13 @@
         <v>4784</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>260</v>
+        <v>439</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>385</v>
+        <v>440</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -6522,10 +6531,10 @@
         <v>6938</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>440</v>
+        <v>177</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -6543,13 +6552,13 @@
         <v>9341</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
@@ -6558,13 +6567,13 @@
         <v>10224</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M9" s="7">
         <v>38</v>
@@ -6573,13 +6582,13 @@
         <v>19565</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6594,13 +6603,13 @@
         <v>113482</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H10" s="7">
         <v>300</v>
@@ -6609,13 +6618,13 @@
         <v>132211</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M10" s="7">
         <v>487</v>
@@ -6624,13 +6633,13 @@
         <v>245692</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>456</v>
+        <v>124</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6698,13 +6707,13 @@
         <v>2632</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>440</v>
+        <v>177</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H12" s="7">
         <v>16</v>
@@ -6713,13 +6722,13 @@
         <v>8477</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>461</v>
+        <v>385</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>133</v>
+        <v>462</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M12" s="7">
         <v>20</v>
@@ -6728,13 +6737,13 @@
         <v>11109</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6749,13 +6758,13 @@
         <v>6228</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>465</v>
+        <v>187</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>366</v>
+        <v>466</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -6764,13 +6773,13 @@
         <v>18280</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>410</v>
+        <v>468</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>468</v>
+        <v>45</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -6779,13 +6788,13 @@
         <v>24508</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6800,13 +6809,13 @@
         <v>164986</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>54</v>
+        <v>473</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H14" s="7">
         <v>398</v>
@@ -6815,13 +6824,13 @@
         <v>215753</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>476</v>
+        <v>149</v>
       </c>
       <c r="M14" s="7">
         <v>637</v>
@@ -6830,13 +6839,13 @@
         <v>380739</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6910,7 +6919,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -6922,10 +6931,10 @@
         <v>19</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -6934,13 +6943,13 @@
         <v>5619</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6955,13 +6964,13 @@
         <v>4656</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -6970,13 +6979,13 @@
         <v>13937</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>406</v>
+        <v>346</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -6985,13 +6994,13 @@
         <v>18593</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>118</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7006,13 +7015,13 @@
         <v>143534</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>490</v>
+        <v>130</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H18" s="7">
         <v>258</v>
@@ -7021,10 +7030,10 @@
         <v>261060</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>494</v>
+        <v>53</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>495</v>
@@ -7110,10 +7119,10 @@
         <v>1921</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>404</v>
+        <v>499</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>499</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>500</v>
@@ -7125,13 +7134,13 @@
         <v>6400</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -7161,13 +7170,13 @@
         <v>2755</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>505</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>505</v>
+        <v>228</v>
       </c>
       <c r="H21" s="7">
         <v>19</v>
@@ -7176,7 +7185,7 @@
         <v>10917</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>506</v>
@@ -7215,10 +7224,10 @@
         <v>511</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>393</v>
+        <v>512</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H22" s="7">
         <v>494</v>
@@ -7227,13 +7236,13 @@
         <v>291581</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M22" s="7">
         <v>812</v>
@@ -7242,13 +7251,13 @@
         <v>506443</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7316,13 +7325,13 @@
         <v>6707</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>364</v>
+        <v>521</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>179</v>
+        <v>522</v>
       </c>
       <c r="H24" s="7">
         <v>49</v>
@@ -7331,13 +7340,13 @@
         <v>27321</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="M24" s="7">
         <v>60</v>
@@ -7346,13 +7355,13 @@
         <v>34028</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7367,13 +7376,13 @@
         <v>23698</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H25" s="7">
         <v>109</v>
@@ -7382,13 +7391,13 @@
         <v>57310</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>44</v>
+        <v>529</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>526</v>
+        <v>95</v>
       </c>
       <c r="M25" s="7">
         <v>146</v>
@@ -7397,13 +7406,13 @@
         <v>81008</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7418,13 +7427,13 @@
         <v>665811</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="H26" s="7">
         <v>1546</v>
@@ -7433,13 +7442,13 @@
         <v>940032</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M26" s="7">
         <v>2524</v>
@@ -7451,10 +7460,10 @@
         <v>355</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7510,7 +7519,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5406-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5406-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{350E91AE-9206-40F2-8563-25A7A00797F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AAB2420-8361-4155-837E-B4B45ABE59C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2DEAAA04-7F66-4868-A110-4B3B0A994735}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8273D4C4-EBEA-4CAC-9384-79B83FA31FA5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="551">
   <si>
     <t>Población según si es capaz de tomar medicación en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -95,13 +95,13 @@
     <t>4,17%</t>
   </si>
   <si>
-    <t>19,83%</t>
+    <t>19,96%</t>
   </si>
   <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>11,06%</t>
+    <t>9,68%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -119,1522 +119,1558 @@
     <t>95,83%</t>
   </si>
   <si>
-    <t>80,17%</t>
+    <t>80,04%</t>
   </si>
   <si>
     <t>98,0%</t>
   </si>
   <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de tomar medicación en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de tomar medicación en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
     <t>88,94%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
   </si>
   <si>
     <t>0,94%</t>
   </si>
   <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de tomar medicación en 2023 (Tasa respuesta: 31,22%)</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
   </si>
   <si>
     <t>3,99%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de tomar medicación en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de tomar medicación en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de tomar medicación en 2023 (Tasa respuesta: 31,22%)</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
+    <t>7,04%</t>
   </si>
   <si>
     <t>4,71%</t>
   </si>
   <si>
-    <t>3,76%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
   </si>
   <si>
     <t>95,63%</t>
@@ -1643,13 +1679,16 @@
     <t>94,27%</t>
   </si>
   <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
   </si>
   <si>
     <t>94,69%</t>
@@ -2064,7 +2103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CEEBAD0-A5C3-44EA-9133-CF74ABF09985}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC98F6A-32BF-4805-834B-C0D2BF45C77C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2842,7 +2881,7 @@
         <v>87</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2857,13 +2896,13 @@
         <v>1830</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -3093,13 +3132,13 @@
         <v>13445</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,13 +3153,13 @@
         <v>129742</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H22" s="7">
         <v>191</v>
@@ -3224,7 +3263,7 @@
         <v>132</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="H24" s="7">
         <v>15</v>
@@ -3233,13 +3272,13 @@
         <v>15947</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -3248,13 +3287,13 @@
         <v>19523</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,13 +3308,13 @@
         <v>28190</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -3284,13 +3323,13 @@
         <v>27043</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>55</v>
@@ -3299,13 +3338,13 @@
         <v>55233</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,13 +3359,13 @@
         <v>470700</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H26" s="7">
         <v>622</v>
@@ -3335,13 +3374,13 @@
         <v>633852</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>1111</v>
@@ -3350,13 +3389,13 @@
         <v>1104552</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,7 +3451,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3433,7 +3472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80E076C-4B4D-4528-B7F9-56D4AB0D8C09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B4CAC9-F195-4139-ACDA-AC09DFBA206E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3450,7 +3489,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3557,13 +3596,13 @@
         <v>965</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3572,13 +3611,13 @@
         <v>1131</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3587,13 +3626,13 @@
         <v>2096</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,7 +3653,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3623,13 +3662,13 @@
         <v>1172</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3638,13 +3677,13 @@
         <v>1172</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,10 +3698,10 @@
         <v>20233</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -3674,10 +3713,10 @@
         <v>22891</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>22</v>
@@ -3689,13 +3728,13 @@
         <v>43123</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3802,13 @@
         <v>1057</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -3778,13 +3817,13 @@
         <v>6289</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -3793,13 +3832,13 @@
         <v>7346</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,13 +3853,13 @@
         <v>8672</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -3829,13 +3868,13 @@
         <v>7380</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>184</v>
+        <v>38</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>34</v>
+        <v>187</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -3844,13 +3883,13 @@
         <v>16051</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,13 +3904,13 @@
         <v>108621</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>121</v>
@@ -3880,13 +3919,13 @@
         <v>127923</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>218</v>
@@ -3895,13 +3934,13 @@
         <v>236545</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,13 +4008,13 @@
         <v>6400</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -3984,13 +4023,13 @@
         <v>8856</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
@@ -3999,13 +4038,13 @@
         <v>15257</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,13 +4059,13 @@
         <v>8787</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>34</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -4035,13 +4074,13 @@
         <v>18934</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -4050,13 +4089,13 @@
         <v>27721</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,13 +4110,13 @@
         <v>139691</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>152</v>
@@ -4086,13 +4125,13 @@
         <v>163629</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>277</v>
@@ -4101,13 +4140,13 @@
         <v>303320</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>221</v>
+        <v>50</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,13 +4214,13 @@
         <v>4378</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>224</v>
+        <v>110</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4190,13 +4229,13 @@
         <v>8786</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -4205,13 +4244,13 @@
         <v>13163</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,13 +4265,13 @@
         <v>8290</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>64</v>
+        <v>235</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -4241,13 +4280,13 @@
         <v>11030</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>139</v>
+        <v>237</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -4256,13 +4295,13 @@
         <v>19319</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,13 +4316,13 @@
         <v>90931</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H18" s="7">
         <v>112</v>
@@ -4292,13 +4331,13 @@
         <v>121204</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M18" s="7">
         <v>191</v>
@@ -4307,13 +4346,13 @@
         <v>212134</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>247</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4381,13 +4420,13 @@
         <v>4038</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>138</v>
+        <v>253</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -4396,13 +4435,13 @@
         <v>7315</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -4411,13 +4450,13 @@
         <v>11354</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,13 +4471,13 @@
         <v>11411</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -4447,13 +4486,13 @@
         <v>12571</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M21" s="7">
         <v>21</v>
@@ -4462,13 +4501,13 @@
         <v>23982</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,13 +4522,13 @@
         <v>146164</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>266</v>
+        <v>102</v>
       </c>
       <c r="H22" s="7">
         <v>212</v>
@@ -4498,13 +4537,13 @@
         <v>223863</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M22" s="7">
         <v>346</v>
@@ -4513,13 +4552,13 @@
         <v>370027</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,13 +4626,13 @@
         <v>16839</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>90</v>
+        <v>279</v>
       </c>
       <c r="H24" s="7">
         <v>29</v>
@@ -4602,13 +4641,13 @@
         <v>32377</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="M24" s="7">
         <v>44</v>
@@ -4617,13 +4656,13 @@
         <v>49216</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>278</v>
+        <v>182</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,13 +4677,13 @@
         <v>37159</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>119</v>
+        <v>285</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>280</v>
+        <v>159</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -4653,13 +4692,13 @@
         <v>51087</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="M25" s="7">
         <v>78</v>
@@ -4668,13 +4707,13 @@
         <v>88246</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,13 +4728,13 @@
         <v>505640</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="H26" s="7">
         <v>618</v>
@@ -4704,13 +4743,13 @@
         <v>659511</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="M26" s="7">
         <v>1076</v>
@@ -4719,13 +4758,13 @@
         <v>1165150</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>146</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,7 +4820,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4802,7 +4841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAACF1B-9EB1-4414-884B-8E0446911341}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB05E50C-5A77-4C78-B348-89E55E292F15}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4819,7 +4858,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4926,13 +4965,13 @@
         <v>794</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4947,7 +4986,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4956,13 +4995,13 @@
         <v>794</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +5016,13 @@
         <v>1843</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4992,13 +5031,13 @@
         <v>1089</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -5007,13 +5046,13 @@
         <v>2932</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,13 +5067,13 @@
         <v>19051</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>100</v>
+        <v>314</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -5043,10 +5082,10 @@
         <v>22350</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>22</v>
@@ -5058,13 +5097,13 @@
         <v>41402</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,13 +5171,13 @@
         <v>3365</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -5147,13 +5186,13 @@
         <v>2399</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>90</v>
+        <v>326</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -5165,10 +5204,10 @@
         <v>34</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,13 +5222,13 @@
         <v>3302</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -5198,13 +5237,13 @@
         <v>8227</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -5213,13 +5252,13 @@
         <v>11529</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5234,13 +5273,13 @@
         <v>108379</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="H10" s="7">
         <v>126</v>
@@ -5249,28 +5288,28 @@
         <v>139325</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="M10" s="7">
         <v>242</v>
       </c>
       <c r="N10" s="7">
-        <v>247705</v>
+        <v>247704</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5312,7 +5351,7 @@
         <v>259</v>
       </c>
       <c r="N11" s="7">
-        <v>264998</v>
+        <v>264997</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>24</v>
@@ -5338,13 +5377,13 @@
         <v>1662</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -5353,13 +5392,13 @@
         <v>5363</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -5368,13 +5407,13 @@
         <v>7025</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5389,13 +5428,13 @@
         <v>5064</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>346</v>
+        <v>84</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -5404,13 +5443,13 @@
         <v>9277</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>110</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -5422,10 +5461,10 @@
         <v>31</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5440,13 +5479,13 @@
         <v>158215</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="H14" s="7">
         <v>171</v>
@@ -5455,13 +5494,13 @@
         <v>204523</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="M14" s="7">
         <v>338</v>
@@ -5470,13 +5509,13 @@
         <v>362738</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,13 +5583,13 @@
         <v>793</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>361</v>
+        <v>61</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5559,13 +5598,13 @@
         <v>3656</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>371</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -5574,13 +5613,13 @@
         <v>4448</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>110</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,13 +5634,13 @@
         <v>5949</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>36</v>
+        <v>375</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -5610,13 +5649,13 @@
         <v>8910</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>113</v>
+        <v>379</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -5625,13 +5664,13 @@
         <v>14859</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>372</v>
+        <v>235</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,13 +5685,13 @@
         <v>108294</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="H18" s="7">
         <v>108</v>
@@ -5661,13 +5700,13 @@
         <v>130030</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>377</v>
+        <v>153</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="M18" s="7">
         <v>215</v>
@@ -5676,13 +5715,13 @@
         <v>238324</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,7 +5795,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -5765,13 +5804,13 @@
         <v>2467</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>384</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5780,13 +5819,13 @@
         <v>2467</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5801,13 +5840,13 @@
         <v>2043</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>389</v>
+        <v>66</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -5816,13 +5855,13 @@
         <v>13044</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="M21" s="7">
         <v>10</v>
@@ -5831,13 +5870,13 @@
         <v>15088</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>317</v>
+        <v>398</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>227</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5852,10 +5891,10 @@
         <v>172575</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>22</v>
@@ -5867,13 +5906,13 @@
         <v>227270</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="M22" s="7">
         <v>376</v>
@@ -5882,13 +5921,13 @@
         <v>399846</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5956,13 +5995,13 @@
         <v>6613</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>118</v>
+        <v>407</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -5971,13 +6010,13 @@
         <v>13884</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>401</v>
+        <v>278</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>403</v>
+        <v>57</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -5986,13 +6025,13 @@
         <v>20498</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>346</v>
+        <v>409</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>41</v>
+        <v>177</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6007,13 +6046,13 @@
         <v>18201</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>86</v>
+        <v>412</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="H25" s="7">
         <v>31</v>
@@ -6022,13 +6061,13 @@
         <v>40547</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>184</v>
+        <v>38</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>181</v>
+        <v>415</v>
       </c>
       <c r="M25" s="7">
         <v>51</v>
@@ -6037,13 +6076,13 @@
         <v>58748</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6058,13 +6097,13 @@
         <v>566514</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>272</v>
+        <v>420</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="H26" s="7">
         <v>614</v>
@@ -6073,13 +6112,13 @@
         <v>723500</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="M26" s="7">
         <v>1213</v>
@@ -6088,13 +6127,13 @@
         <v>1290014</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>417</v>
+        <v>72</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6150,7 +6189,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -6171,7 +6210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86CBECBA-C4E0-4A6F-8F6E-EA344C7AF883}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532E2431-3724-4813-84C7-A22077C93597}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6188,7 +6227,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6301,7 +6340,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -6310,13 +6349,13 @@
         <v>2040</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -6325,13 +6364,13 @@
         <v>2040</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>423</v>
+        <v>264</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>424</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>321</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6346,13 +6385,13 @@
         <v>717</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>115</v>
+        <v>431</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -6361,13 +6400,13 @@
         <v>3952</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -6376,13 +6415,13 @@
         <v>4669</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>429</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>40</v>
+        <v>436</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6397,10 +6436,10 @@
         <v>28947</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>221</v>
+        <v>439</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -6412,13 +6451,13 @@
         <v>39429</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>129</v>
+        <v>442</v>
       </c>
       <c r="M6" s="7">
         <v>142</v>
@@ -6427,13 +6466,13 @@
         <v>68376</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6501,13 +6540,13 @@
         <v>2154</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>160</v>
+        <v>448</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -6516,13 +6555,13 @@
         <v>4784</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>440</v>
+        <v>91</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -6531,13 +6570,13 @@
         <v>6938</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>177</v>
+        <v>452</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6552,13 +6591,13 @@
         <v>9341</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
@@ -6567,13 +6606,13 @@
         <v>10224</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>447</v>
+        <v>66</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="M9" s="7">
         <v>38</v>
@@ -6582,13 +6621,13 @@
         <v>19565</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6603,13 +6642,13 @@
         <v>113482</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="H10" s="7">
         <v>300</v>
@@ -6618,13 +6657,13 @@
         <v>132211</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="M10" s="7">
         <v>487</v>
@@ -6633,13 +6672,13 @@
         <v>245692</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>124</v>
+        <v>468</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6707,13 +6746,13 @@
         <v>2632</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>177</v>
+        <v>471</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>461</v>
+        <v>44</v>
       </c>
       <c r="H12" s="7">
         <v>16</v>
@@ -6722,13 +6761,13 @@
         <v>8477</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>385</v>
+        <v>473</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>463</v>
+        <v>145</v>
       </c>
       <c r="M12" s="7">
         <v>20</v>
@@ -6737,13 +6776,13 @@
         <v>11109</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>465</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6758,13 +6797,13 @@
         <v>6228</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>187</v>
+        <v>476</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>467</v>
+        <v>14</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -6773,13 +6812,13 @@
         <v>18280</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -6788,13 +6827,13 @@
         <v>24508</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>471</v>
+        <v>110</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6809,13 +6848,13 @@
         <v>164986</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>474</v>
+        <v>271</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="H14" s="7">
         <v>398</v>
@@ -6824,13 +6863,13 @@
         <v>215753</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>149</v>
+        <v>487</v>
       </c>
       <c r="M14" s="7">
         <v>637</v>
@@ -6839,13 +6878,13 @@
         <v>380739</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6919,7 +6958,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>136</v>
+        <v>491</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -6931,10 +6970,10 @@
         <v>19</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -6943,13 +6982,13 @@
         <v>5619</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6964,13 +7003,13 @@
         <v>4656</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>486</v>
+        <v>255</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -6979,13 +7018,13 @@
         <v>13937</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>346</v>
+        <v>499</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -6994,13 +7033,13 @@
         <v>18593</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7015,13 +7054,13 @@
         <v>143534</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>130</v>
+        <v>503</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="H18" s="7">
         <v>258</v>
@@ -7030,13 +7069,13 @@
         <v>261060</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>53</v>
+        <v>507</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>495</v>
+        <v>362</v>
       </c>
       <c r="M18" s="7">
         <v>446</v>
@@ -7045,13 +7084,13 @@
         <v>404593</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>498</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7119,13 +7158,13 @@
         <v>1921</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -7134,13 +7173,13 @@
         <v>6400</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>387</v>
+        <v>474</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>277</v>
+        <v>513</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -7149,13 +7188,13 @@
         <v>8321</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>504</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7170,13 +7209,13 @@
         <v>2755</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>505</v>
+        <v>255</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>481</v>
+        <v>516</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>228</v>
+        <v>517</v>
       </c>
       <c r="H21" s="7">
         <v>19</v>
@@ -7188,10 +7227,10 @@
         <v>93</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
@@ -7200,13 +7239,13 @@
         <v>13672</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7221,13 +7260,13 @@
         <v>214862</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="H22" s="7">
         <v>494</v>
@@ -7236,13 +7275,13 @@
         <v>291581</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="M22" s="7">
         <v>812</v>
@@ -7251,13 +7290,13 @@
         <v>506443</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>519</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7325,13 +7364,13 @@
         <v>6707</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="H24" s="7">
         <v>49</v>
@@ -7340,13 +7379,13 @@
         <v>27321</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>437</v>
+        <v>398</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>523</v>
+        <v>267</v>
       </c>
       <c r="M24" s="7">
         <v>60</v>
@@ -7355,13 +7394,13 @@
         <v>34028</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>525</v>
+        <v>202</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>442</v>
+        <v>535</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7376,13 +7415,13 @@
         <v>23698</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>482</v>
+        <v>538</v>
       </c>
       <c r="H25" s="7">
         <v>109</v>
@@ -7391,13 +7430,13 @@
         <v>57310</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>528</v>
+        <v>418</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>95</v>
+        <v>540</v>
       </c>
       <c r="M25" s="7">
         <v>146</v>
@@ -7406,13 +7445,13 @@
         <v>81008</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>138</v>
+        <v>543</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7427,13 +7466,13 @@
         <v>665811</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="H26" s="7">
         <v>1546</v>
@@ -7442,13 +7481,13 @@
         <v>940032</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>123</v>
+        <v>548</v>
       </c>
       <c r="M26" s="7">
         <v>2524</v>
@@ -7457,13 +7496,13 @@
         <v>1605843</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7519,7 +7558,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
